--- a/Documents/SE1606_SWP391_OnlineShop_Backlog_W3.xlsx
+++ b/Documents/SE1606_SWP391_OnlineShop_Backlog_W3.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anhvo\Desktop\SE1606_SWP391_OnlineShop_W2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FPTU\Ky5\SWP391\Week 3\SWP391\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A13C005-D645-4BA3-9EE2-7063B25B575C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{DF743DC6-3E10-FC40-A74C-7ADFA9B03788}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="RoC" sheetId="4" r:id="rId1"/>
@@ -28,25 +27,17 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Product!$A$8:$G$44</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RoC!$A$3:$C$10</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="180">
   <si>
     <t>THE APPLICATION DEVELOPMENT PROJECT TOPIC</t>
   </si>
@@ -535,31 +526,134 @@
     <t>VoNVAHE151420</t>
   </si>
   <si>
+    <t>code thêm chức năng quên MK</t>
+  </si>
+  <si>
+    <t>HungNMHE151211</t>
+  </si>
+  <si>
+    <t>DucLMHE140328</t>
+  </si>
+  <si>
+    <t>IT2 -&gt; IT1</t>
+  </si>
+  <si>
+    <t>HoangNVHE151236</t>
+  </si>
+  <si>
+    <t>ThachDPHE151521</t>
+  </si>
+  <si>
+    <t>Messenger Customer</t>
+  </si>
+  <si>
+    <t>Messenger Admin</t>
+  </si>
+  <si>
+    <t>Product Color</t>
+  </si>
+  <si>
+    <t>Suppliers Detail</t>
+  </si>
+  <si>
+    <t>Suppliers List</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>Suppliers List 2</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>Favorite product</t>
+  </si>
+  <si>
+    <t>Display customer chat frame for Admin
+Customers can only send messages to Admin but can't send to anyone</t>
+  </si>
+  <si>
+    <t>The chat box will display all The messages that The customers have sent to The Admin
+Admin will specify a certain chat frame in The list of received messages</t>
+  </si>
+  <si>
+    <t>Admin will see the list of suppliers as a selection of the top 5 suppliers with the most products(Company Name, Quantity Product, phone, mail,…)</t>
+  </si>
+  <si>
+    <t>Admin will have the right to see the list of product suppliers for the shop(Company Name, Quantity Product, phone, mail,…)</t>
+  </si>
+  <si>
+    <t>Admin will be able to update previous supplier information</t>
+  </si>
+  <si>
+    <t>Customers have a choice of colors for products, if any</t>
+  </si>
+  <si>
+    <t>Most Favorite product list</t>
+  </si>
+  <si>
+    <t>The product has been loved by customers.
+Stored, customers can control their favorite products</t>
+  </si>
+  <si>
+    <t>The product has been loved by customers.
+Stored, Admin can control the customer's favorite products and are listed into a list. From there, the shop can make some business plans</t>
+  </si>
+  <si>
+    <t>Suppliers Detail 2</t>
+  </si>
+  <si>
+    <t>Admin will be able to add  supplier information</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>Suppliers Details</t>
+  </si>
+  <si>
+    <t>Suppliers Details 2</t>
+  </si>
+  <si>
+    <t>Products Color</t>
+  </si>
+  <si>
+    <t>Favorite Product</t>
+  </si>
+  <si>
+    <t>Most Favorite Product List</t>
+  </si>
+  <si>
     <t>Doing</t>
   </si>
   <si>
-    <t>code thêm chức năng quên MK</t>
-  </si>
-  <si>
-    <t>HungNMHE151211</t>
-  </si>
-  <si>
-    <t>DucLMHE140328</t>
-  </si>
-  <si>
-    <t>IT2 -&gt; IT1</t>
-  </si>
-  <si>
-    <t>HoangNVHE151236</t>
-  </si>
-  <si>
-    <t>ThachDPHE151521</t>
+    <t>HungNMHE1512110</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -628,6 +722,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -640,6 +735,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -686,9 +782,8 @@
       <family val="2"/>
     </font>
     <font>
-      <i/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -731,7 +826,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -797,12 +892,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -898,17 +1033,40 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="19" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 5" xfId="1" xr:uid="{962DD808-D234-E447-A3DA-EC3FA1D4FD3F}"/>
+    <cellStyle name="Normal 5" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1614,7 +1772,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB98B27F-7219-5146-AEA2-213319431025}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
@@ -1625,25 +1783,25 @@
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" customWidth="1"/>
-    <col min="4" max="4" width="71.6640625" customWidth="1"/>
-    <col min="5" max="225" width="8.77734375" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="71.7109375" customWidth="1"/>
+    <col min="5" max="225" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -1657,7 +1815,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <f>ROW()-3</f>
         <v>1</v>
@@ -1666,7 +1824,7 @@
       <c r="C4" s="6"/>
       <c r="D4" s="12"/>
     </row>
-    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <f t="shared" ref="A5:A10" si="0">ROW()-3</f>
         <v>2</v>
@@ -1675,7 +1833,7 @@
       <c r="C5" s="6"/>
       <c r="D5" s="12"/>
     </row>
-    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1684,7 +1842,7 @@
       <c r="C6" s="6"/>
       <c r="D6" s="12"/>
     </row>
-    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1693,7 +1851,7 @@
       <c r="C7" s="6"/>
       <c r="D7" s="12"/>
     </row>
-    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1702,7 +1860,7 @@
       <c r="C8" s="6"/>
       <c r="D8" s="12"/>
     </row>
-    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1711,7 +1869,7 @@
       <c r="C9" s="6"/>
       <c r="D9" s="12"/>
     </row>
-    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1721,65 +1879,65 @@
       <c r="D10" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:C10" xr:uid="{6B7C6098-9A84-DF47-8776-29A23ED803E4}"/>
+  <autoFilter ref="A3:C10"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03FD9986-9B81-BC45-A69A-43ECFCC07D8B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I41" sqref="I41"/>
+      <pane ySplit="8" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="113.88671875" customWidth="1"/>
-    <col min="7" max="7" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="229" width="8.77734375" customWidth="1"/>
+    <col min="6" max="6" width="113.85546875" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="229" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="D5" s="10" t="s">
         <v>0</v>
       </c>
       <c r="E5" s="10"/>
     </row>
-    <row r="6" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="D6" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="13"/>
     </row>
-    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -1802,7 +1960,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="105" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>59</v>
       </c>
@@ -1816,7 +1974,7 @@
         <v>3</v>
       </c>
       <c r="E9" s="20">
-        <f t="shared" ref="E9:E44" si="0">IF(D9="Complex", 240, IF(D9="Medium",120,60))</f>
+        <f>IF(D9="Complex", 240, IF(D9="Medium",120,60))</f>
         <v>240</v>
       </c>
       <c r="F9" s="15" t="s">
@@ -1826,7 +1984,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>60</v>
       </c>
@@ -1840,7 +1998,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E10:E53" si="0">IF(D10="Complex", 240, IF(D10="Medium",120,60))</f>
         <v>60</v>
       </c>
       <c r="F10" s="16" t="s">
@@ -1850,7 +2008,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>61</v>
       </c>
@@ -1874,7 +2032,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>62</v>
       </c>
@@ -1898,7 +2056,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>63</v>
       </c>
@@ -1922,7 +2080,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>64</v>
       </c>
@@ -1946,7 +2104,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>65</v>
       </c>
@@ -1970,7 +2128,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>66</v>
       </c>
@@ -1994,7 +2152,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="135" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>67</v>
       </c>
@@ -2018,7 +2176,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>68</v>
       </c>
@@ -2042,7 +2200,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="90" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>69</v>
       </c>
@@ -2066,7 +2224,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>70</v>
       </c>
@@ -2090,7 +2248,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>71</v>
       </c>
@@ -2114,7 +2272,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>72</v>
       </c>
@@ -2138,7 +2296,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>73</v>
       </c>
@@ -2162,7 +2320,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="90" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
         <v>74</v>
       </c>
@@ -2186,7 +2344,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
         <v>75</v>
       </c>
@@ -2210,7 +2368,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
         <v>76</v>
       </c>
@@ -2234,7 +2392,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
         <v>77</v>
       </c>
@@ -2258,7 +2416,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
         <v>78</v>
       </c>
@@ -2282,7 +2440,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
         <v>79</v>
       </c>
@@ -2306,7 +2464,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
         <v>80</v>
       </c>
@@ -2330,7 +2488,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
         <v>81</v>
       </c>
@@ -2354,7 +2512,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="105" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>82</v>
       </c>
@@ -2378,7 +2536,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="120" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
         <v>83</v>
       </c>
@@ -2402,7 +2560,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
         <v>84</v>
       </c>
@@ -2426,7 +2584,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="90" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
         <v>85</v>
       </c>
@@ -2450,7 +2608,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="60" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
         <v>86</v>
       </c>
@@ -2474,7 +2632,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="90" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A37" s="17" t="s">
         <v>87</v>
       </c>
@@ -2498,7 +2656,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
         <v>88</v>
       </c>
@@ -2522,7 +2680,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="90" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
         <v>89</v>
       </c>
@@ -2539,14 +2697,14 @@
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F39" s="16" t="s">
+      <c r="F39" s="42" t="s">
         <v>101</v>
       </c>
       <c r="G39" s="21" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="17" t="s">
         <v>90</v>
       </c>
@@ -2570,7 +2728,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="135" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
         <v>91</v>
       </c>
@@ -2594,7 +2752,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="105" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A42" s="17" t="s">
         <v>92</v>
       </c>
@@ -2618,7 +2776,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="165" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A43" s="17" t="s">
         <v>93</v>
       </c>
@@ -2642,7 +2800,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="105" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A44" s="17" t="s">
         <v>94</v>
       </c>
@@ -2666,26 +2824,242 @@
         <v>135</v>
       </c>
     </row>
+    <row r="45" spans="1:7" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="B45" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="C45" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="D45" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E45" s="20">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="F45" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="G45" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="B46" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="C46" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="D46" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E46" s="20">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="F46" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="G46" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="B47" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="C47" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="D47" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="E47" s="20">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F47" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="G47" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="B48" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="C48" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="D48" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48" s="20">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="F48" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="G48" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="B49" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="C49" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="D49" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="E49" s="20">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F49" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="G49" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="B50" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="C50" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="D50" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="E50" s="20">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F50" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="G50" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="B51" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="C51" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="E51" s="20">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F51" s="41" t="s">
+        <v>165</v>
+      </c>
+      <c r="G51" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="B52" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="C52" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="D52" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="E52" s="20">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F52" s="40" t="s">
+        <v>167</v>
+      </c>
+      <c r="G52" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="B53" s="43" t="s">
+        <v>166</v>
+      </c>
+      <c r="C53" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="D53" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E53" s="20">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="F53" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="G53" t="s">
+        <v>137</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A8:G44" xr:uid="{03FD9986-9B81-BC45-A69A-43ECFCC07D8B}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:G44">
+  <autoFilter ref="A8:G44">
+    <sortState ref="A9:G44">
       <sortCondition ref="A8:A44"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D44" xr:uid="{3325CDC9-7B37-438D-ABB6-722DE58A021D}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D44">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B7C6098-9A84-DF47-8776-29A23ED803E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
@@ -2693,50 +3067,50 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" style="22" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" style="23" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" style="23" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" style="23" customWidth="1"/>
-    <col min="6" max="6" width="17.109375" style="23" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="23" customWidth="1"/>
-    <col min="8" max="8" width="66.6640625" style="23" customWidth="1"/>
-    <col min="9" max="229" width="8.77734375" style="23" customWidth="1"/>
-    <col min="230" max="16384" width="11.5546875" style="23"/>
+    <col min="1" max="1" width="4.7109375" style="22" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" style="23" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" style="23" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="23" customWidth="1"/>
+    <col min="8" max="8" width="66.7109375" style="23" customWidth="1"/>
+    <col min="9" max="229" width="8.7109375" style="23" customWidth="1"/>
+    <col min="230" max="16384" width="11.5703125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C1" s="22"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C2" s="22"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C3" s="22"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C4" s="22"/>
     </row>
-    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.2">
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F6" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="24"/>
       <c r="C7" s="22"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
         <v>6</v>
       </c>
@@ -2762,7 +3136,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
         <v>59</v>
       </c>
@@ -2775,18 +3149,21 @@
       <c r="D9" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="36" t="s">
-        <v>142</v>
+      <c r="E9" s="31">
+        <f>IF(D9="Complex", 240, IF(D9="Medium",120,60))</f>
+        <v>60</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>144</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>138</v>
       </c>
       <c r="H9" s="29" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>60</v>
       </c>
@@ -2799,16 +3176,19 @@
       <c r="D10" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="36" t="s">
-        <v>142</v>
+      <c r="E10" s="31">
+        <f t="shared" ref="E10:E15" si="0">IF(D10="Complex", 240, IF(D10="Medium",120,60))</f>
+        <v>120</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>144</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>138</v>
       </c>
       <c r="H10" s="29"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
         <v>61</v>
       </c>
@@ -2821,16 +3201,19 @@
       <c r="D11" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="31"/>
+      <c r="E11" s="31">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
       <c r="F11" s="29" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>138</v>
       </c>
       <c r="H11" s="29"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
         <v>62</v>
       </c>
@@ -2843,16 +3226,19 @@
       <c r="D12" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="31"/>
+      <c r="E12" s="31">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
       <c r="F12" s="29" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>29</v>
+        <v>138</v>
       </c>
       <c r="H12" s="33"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
         <v>63</v>
       </c>
@@ -2865,16 +3251,19 @@
       <c r="D13" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="31"/>
+      <c r="E13" s="31">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
       <c r="F13" s="29" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>138</v>
       </c>
       <c r="H13" s="33"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
         <v>64</v>
       </c>
@@ -2887,20 +3276,23 @@
       <c r="D14" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="31"/>
+      <c r="E14" s="31">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
       <c r="F14" s="29" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>138</v>
       </c>
       <c r="H14" s="33"/>
     </row>
-    <row r="15" spans="1:8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="36" t="s">
         <v>35</v>
       </c>
       <c r="C15" s="34" t="s">
@@ -2909,25 +3301,28 @@
       <c r="D15" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="E15" s="35"/>
+      <c r="E15" s="31">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
       <c r="F15" s="29" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>138</v>
       </c>
       <c r="H15" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A8:F14" xr:uid="{6B7C6098-9A84-DF47-8776-29A23ED803E4}"/>
+  <autoFilter ref="A8:F14"/>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D15" xr:uid="{83A035EB-9A66-464E-89EA-EDE8672A38C5}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D15">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G15" xr:uid="{87586766-5E28-254B-B022-5E1E8820EF2F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G15">
       <formula1>"Pending, Doing, Deferred, Done"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2938,57 +3333,57 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00E02CF8-FB3D-DF4A-9262-C19A1859D225}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="66.6640625" customWidth="1"/>
-    <col min="9" max="229" width="8.77734375" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="66.7109375" customWidth="1"/>
+    <col min="9" max="229" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="F6" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>6</v>
       </c>
@@ -3001,8 +3396,9 @@
       <c r="D8" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="27" t="s">
-        <v>17</v>
+      <c r="E8" s="27">
+        <f ca="1">IF(E8="Complex", 240, IF(D15="Medium",120,60))</f>
+        <v>0</v>
       </c>
       <c r="F8" s="26" t="s">
         <v>22</v>
@@ -3014,7 +3410,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>59</v>
       </c>
@@ -3027,20 +3423,23 @@
       <c r="D9" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="35"/>
+      <c r="E9" s="27">
+        <f>IF(D9="Complex", 240, IF(D9="Medium",120,60))</f>
+        <v>60</v>
+      </c>
       <c r="F9" s="29" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>140</v>
+        <v>178</v>
       </c>
       <c r="H9" s="29"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="36" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="34" t="s">
@@ -3049,16 +3448,19 @@
       <c r="D10" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="35"/>
+      <c r="E10" s="27">
+        <f t="shared" ref="E10:E16" si="0">IF(D10="Complex", 240, IF(D10="Medium",120,60))</f>
+        <v>240</v>
+      </c>
       <c r="F10" s="29" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>140</v>
+        <v>178</v>
       </c>
       <c r="H10" s="29"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>61</v>
       </c>
@@ -3071,16 +3473,19 @@
       <c r="D11" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="35"/>
+      <c r="E11" s="27">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
       <c r="F11" s="29" t="s">
-        <v>145</v>
+        <v>179</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>140</v>
+        <v>178</v>
       </c>
       <c r="H11" s="29"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>62</v>
       </c>
@@ -3093,7 +3498,10 @@
       <c r="D12" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="35"/>
+      <c r="E12" s="27">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
       <c r="F12" s="29" t="s">
         <v>145</v>
       </c>
@@ -3102,7 +3510,7 @@
       </c>
       <c r="H12" s="29"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>63</v>
       </c>
@@ -3115,16 +3523,19 @@
       <c r="D13" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="35"/>
-      <c r="F13" s="36" t="s">
-        <v>146</v>
+      <c r="E13" s="27">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F13" s="35" t="s">
+        <v>145</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>138</v>
       </c>
       <c r="H13" s="29"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>64</v>
       </c>
@@ -3137,16 +3548,19 @@
       <c r="D14" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="35"/>
-      <c r="F14" s="36" t="s">
-        <v>146</v>
+      <c r="E14" s="27">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="F14" s="35" t="s">
+        <v>145</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>138</v>
       </c>
       <c r="H14" s="29"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>65</v>
       </c>
@@ -3159,16 +3573,19 @@
       <c r="D15" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="35"/>
-      <c r="F15" s="36" t="s">
-        <v>146</v>
+      <c r="E15" s="27">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="F15" s="35" t="s">
+        <v>145</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>138</v>
+        <v>178</v>
       </c>
       <c r="H15" s="29"/>
     </row>
-    <row r="16" spans="1:8" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="17" t="s">
         <v>66</v>
       </c>
@@ -3181,23 +3598,26 @@
       <c r="D16" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="31"/>
+      <c r="E16" s="27">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
       <c r="F16" s="29" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>138</v>
+        <v>178</v>
       </c>
       <c r="H16" s="33"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:F14" xr:uid="{6B7C6098-9A84-DF47-8776-29A23ED803E4}"/>
+  <autoFilter ref="A8:F14"/>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G16" xr:uid="{B3199990-1CD6-4442-88CA-D202DBF258D9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G16">
       <formula1>"Pending, Doing, Deferred, Done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D16" xr:uid="{F61C0487-609F-49A1-9F67-11A27607D374}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D16">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3208,57 +3628,57 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B76392B5-BE4C-8F4A-B57C-99BFF07D651C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="66.6640625" customWidth="1"/>
-    <col min="9" max="229" width="8.77734375" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="66.7109375" customWidth="1"/>
+    <col min="9" max="229" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="F6" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>6</v>
       </c>
@@ -3284,7 +3704,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>59</v>
       </c>
@@ -3301,13 +3721,15 @@
         <f>IF(D9="Complex", 240, IF(D9="Medium",120,60))</f>
         <v>120</v>
       </c>
-      <c r="F9" s="29"/>
+      <c r="F9" s="29" t="s">
+        <v>139</v>
+      </c>
       <c r="G9" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H9" s="29"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>60</v>
       </c>
@@ -3321,16 +3743,18 @@
         <v>2</v>
       </c>
       <c r="E10" s="28">
-        <f t="shared" ref="E10:E19" si="0">IF(D10="Complex", 240, IF(D10="Medium",120,60))</f>
+        <f t="shared" ref="E10:E23" si="0">IF(D10="Complex", 240, IF(D10="Medium",120,60))</f>
         <v>120</v>
       </c>
-      <c r="F10" s="29"/>
+      <c r="F10" s="29" t="s">
+        <v>142</v>
+      </c>
       <c r="G10" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H10" s="29"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>61</v>
       </c>
@@ -3347,13 +3771,15 @@
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
-      <c r="F11" s="29"/>
+      <c r="F11" s="29" t="s">
+        <v>142</v>
+      </c>
       <c r="G11" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H11" s="29"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>62</v>
       </c>
@@ -3370,13 +3796,15 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="F12" s="29"/>
+      <c r="F12" s="29" t="s">
+        <v>142</v>
+      </c>
       <c r="G12" s="5" t="s">
-        <v>29</v>
+        <v>178</v>
       </c>
       <c r="H12" s="29"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>63</v>
       </c>
@@ -3393,13 +3821,15 @@
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F13" s="29"/>
+      <c r="F13" s="29" t="s">
+        <v>142</v>
+      </c>
       <c r="G13" s="5" t="s">
-        <v>29</v>
+        <v>178</v>
       </c>
       <c r="H13" s="29"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>64</v>
       </c>
@@ -3416,13 +3846,15 @@
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F14" s="29"/>
+      <c r="F14" s="29" t="s">
+        <v>139</v>
+      </c>
       <c r="G14" s="5" t="s">
-        <v>29</v>
+        <v>178</v>
       </c>
       <c r="H14" s="29"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>65</v>
       </c>
@@ -3439,13 +3871,15 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="F15" s="29"/>
+      <c r="F15" s="29" t="s">
+        <v>139</v>
+      </c>
       <c r="G15" s="5" t="s">
-        <v>29</v>
+        <v>178</v>
       </c>
       <c r="H15" s="29"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>66</v>
       </c>
@@ -3462,13 +3896,15 @@
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F16" s="29"/>
+      <c r="F16" s="29" t="s">
+        <v>139</v>
+      </c>
       <c r="G16" s="5" t="s">
-        <v>29</v>
+        <v>178</v>
       </c>
       <c r="H16" s="29"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>67</v>
       </c>
@@ -3485,13 +3921,15 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="F17" s="29"/>
+      <c r="F17" s="29" t="s">
+        <v>139</v>
+      </c>
       <c r="G17" s="5" t="s">
-        <v>29</v>
+        <v>178</v>
       </c>
       <c r="H17" s="29"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>68</v>
       </c>
@@ -3508,13 +3946,15 @@
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
-      <c r="F18" s="29"/>
+      <c r="F18" s="29" t="s">
+        <v>145</v>
+      </c>
       <c r="G18" s="5" t="s">
-        <v>29</v>
+        <v>178</v>
       </c>
       <c r="H18" s="29"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>69</v>
       </c>
@@ -3531,20 +3971,122 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="F19" s="29"/>
+      <c r="F19" s="29" t="s">
+        <v>145</v>
+      </c>
       <c r="G19" s="5" t="s">
-        <v>29</v>
+        <v>178</v>
       </c>
       <c r="H19" s="29"/>
     </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="45" t="s">
+        <v>150</v>
+      </c>
+      <c r="C20" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="28">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F20" t="s">
+        <v>145</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="H20" s="29"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="45" t="s">
+        <v>157</v>
+      </c>
+      <c r="C21" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="28">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="F21" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="H21" s="29"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="45" t="s">
+        <v>173</v>
+      </c>
+      <c r="C22" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="28">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F22" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="H22" s="29"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="45" t="s">
+        <v>174</v>
+      </c>
+      <c r="C23" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="28">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F23" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="H23" s="29"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A8:F15" xr:uid="{6B7C6098-9A84-DF47-8776-29A23ED803E4}"/>
+  <autoFilter ref="A8:F15"/>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D19" xr:uid="{8F4E28AF-8DF0-4869-AE13-38242159B7DA}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D19">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G19" xr:uid="{70A2B012-44E8-4240-811A-7A10310638DE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G23">
       <formula1>"Pending, Doing, Deferred, Done"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3555,57 +4097,57 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97ADA136-893E-BA41-A2C5-5E590F24A697}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
+      <pane ySplit="8" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="66.6640625" customWidth="1"/>
-    <col min="9" max="229" width="8.77734375" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="66.7109375" customWidth="1"/>
+    <col min="9" max="229" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="F6" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>6</v>
       </c>
@@ -3631,7 +4173,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>59</v>
       </c>
@@ -3645,16 +4187,18 @@
         <v>2</v>
       </c>
       <c r="E9" s="28">
-        <f t="shared" ref="E9:E18" si="0">IF(D9="Complex", 240, IF(D9="Medium",120,60))</f>
+        <f>IF(D9="Complex", 240, IF(D9="Medium",120,60))</f>
         <v>120</v>
       </c>
-      <c r="F9" s="29"/>
+      <c r="F9" s="29" t="s">
+        <v>139</v>
+      </c>
       <c r="G9" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H9" s="29"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>60</v>
       </c>
@@ -3668,16 +4212,18 @@
         <v>1</v>
       </c>
       <c r="E10" s="28">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F10" s="29"/>
+        <f t="shared" ref="E10:E23" si="0">IF(D10="Complex", 240, IF(D10="Medium",120,60))</f>
+        <v>60</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>139</v>
+      </c>
       <c r="G10" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H10" s="29"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>61</v>
       </c>
@@ -3694,13 +4240,15 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="F11" s="29"/>
+      <c r="F11" s="29" t="s">
+        <v>145</v>
+      </c>
       <c r="G11" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H11" s="29"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>62</v>
       </c>
@@ -3717,13 +4265,15 @@
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
-      <c r="F12" s="29"/>
+      <c r="F12" s="29" t="s">
+        <v>139</v>
+      </c>
       <c r="G12" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H12" s="29"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>63</v>
       </c>
@@ -3740,13 +4290,15 @@
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F13" s="29"/>
+      <c r="F13" s="29" t="s">
+        <v>139</v>
+      </c>
       <c r="G13" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H13" s="29"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>64</v>
       </c>
@@ -3763,13 +4315,15 @@
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
-      <c r="F14" s="29"/>
+      <c r="F14" s="29" t="s">
+        <v>141</v>
+      </c>
       <c r="G14" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H14" s="29"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>65</v>
       </c>
@@ -3786,13 +4340,15 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="F15" s="29"/>
+      <c r="F15" s="29" t="s">
+        <v>141</v>
+      </c>
       <c r="G15" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H15" s="29"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>66</v>
       </c>
@@ -3809,13 +4365,15 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="F16" s="29"/>
+      <c r="F16" s="29" t="s">
+        <v>141</v>
+      </c>
       <c r="G16" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H16" s="29"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>67</v>
       </c>
@@ -3832,13 +4390,15 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="F17" s="29"/>
+      <c r="F17" s="29" t="s">
+        <v>142</v>
+      </c>
       <c r="G17" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H17" s="29"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>68</v>
       </c>
@@ -3855,20 +4415,147 @@
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F18" s="29"/>
+      <c r="F18" s="29" t="s">
+        <v>142</v>
+      </c>
       <c r="G18" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H18" s="29"/>
     </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="C19" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="28">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F19" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="29"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="45" t="s">
+        <v>176</v>
+      </c>
+      <c r="C20" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="28">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F20" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" s="29"/>
+    </row>
+    <row r="21" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="C21" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="28">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F21" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21" s="29"/>
+    </row>
+    <row r="22" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="45" t="s">
+        <v>146</v>
+      </c>
+      <c r="C22" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="28">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="F22" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" s="29"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="45" t="s">
+        <v>147</v>
+      </c>
+      <c r="C23" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="28">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="F23" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" s="29"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A8:F15" xr:uid="{6B7C6098-9A84-DF47-8776-29A23ED803E4}"/>
+  <autoFilter ref="A8:F15"/>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G18" xr:uid="{914F4378-E613-DB4A-A4A0-606756B90FEC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G23">
       <formula1>"Pending, Doing, Deferred, Done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D18" xr:uid="{EEAD8E0B-E1EF-4D85-8C71-47195B2AD9D2}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D18">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Documents/SE1606_SWP391_OnlineShop_Backlog_W3.xlsx
+++ b/Documents/SE1606_SWP391_OnlineShop_Backlog_W3.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FPTU\Ky5\SWP391\Week 3\SWP391\Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="RoC" sheetId="4" r:id="rId1"/>
@@ -27,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Product!$A$8:$G$44</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RoC!$A$3:$C$10</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -653,7 +648,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1101,7 +1096,7 @@
         <xdr:cNvPr id="2" name="Picture 3" descr="2017-FPTU-L-01">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82AD362D-90D4-8C43-A624-6085E63B8564}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{82AD362D-90D4-8C43-A624-6085E63B8564}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1180,7 +1175,7 @@
         <xdr:cNvPr id="2" name="Picture 3" descr="2017-FPTU-L-01">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{360CF83D-120C-394B-85F0-B0A23B7BB7E7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{360CF83D-120C-394B-85F0-B0A23B7BB7E7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1259,7 +1254,7 @@
         <xdr:cNvPr id="2" name="Picture 3" descr="2017-FPTU-L-01">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC40858F-DBB6-E64A-9716-BF5235FE7AD7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AC40858F-DBB6-E64A-9716-BF5235FE7AD7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1338,7 +1333,7 @@
         <xdr:cNvPr id="2" name="Picture 3" descr="2017-FPTU-L-01">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC60F863-E6CD-2E4F-BDD5-E8A0CEA1F02E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DC60F863-E6CD-2E4F-BDD5-E8A0CEA1F02E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1417,7 +1412,7 @@
         <xdr:cNvPr id="2" name="Picture 3" descr="2017-FPTU-L-01">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6389CF4C-730B-6A49-9892-6AA66DEAF33A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6389CF4C-730B-6A49-9892-6AA66DEAF33A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1765,7 +1760,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3067,7 +3062,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3634,7 +3629,7 @@
   </sheetPr>
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
     </sheetView>
@@ -4103,7 +4098,7 @@
   </sheetPr>
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
     </sheetView>

--- a/Documents/SE1606_SWP391_OnlineShop_Backlog_W3.xlsx
+++ b/Documents/SE1606_SWP391_OnlineShop_Backlog_W3.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FPTU\Ky5\SWP391\Week 3\SWP391\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FPTU\Sem5\SWP391\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2924CC14-11A0-4238-B2EB-569C7DB4A8EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RoC" sheetId="4" r:id="rId1"/>
@@ -27,10 +28,18 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Product!$A$8:$G$44</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RoC!$A$3:$C$10</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -653,8 +662,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -787,6 +796,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -826,7 +842,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -921,23 +937,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1059,14 +1064,30 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="17" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 5" xfId="1"/>
+    <cellStyle name="Normal 5" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1772,7 +1793,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
@@ -1783,25 +1804,25 @@
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="71.7109375" customWidth="1"/>
-    <col min="5" max="225" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="4" max="4" width="71.6640625" customWidth="1"/>
+    <col min="5" max="225" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -1815,7 +1836,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <f>ROW()-3</f>
         <v>1</v>
@@ -1824,7 +1845,7 @@
       <c r="C4" s="6"/>
       <c r="D4" s="12"/>
     </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <f t="shared" ref="A5:A10" si="0">ROW()-3</f>
         <v>2</v>
@@ -1833,7 +1854,7 @@
       <c r="C5" s="6"/>
       <c r="D5" s="12"/>
     </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1842,7 +1863,7 @@
       <c r="C6" s="6"/>
       <c r="D6" s="12"/>
     </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1851,7 +1872,7 @@
       <c r="C7" s="6"/>
       <c r="D7" s="12"/>
     </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1860,7 +1881,7 @@
       <c r="C8" s="6"/>
       <c r="D8" s="12"/>
     </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1869,7 +1890,7 @@
       <c r="C9" s="6"/>
       <c r="D9" s="12"/>
     </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1879,14 +1900,14 @@
       <c r="D10" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:C10"/>
+  <autoFilter ref="A3:C10" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
@@ -1897,47 +1918,47 @@
       <selection pane="bottomLeft" activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="113.85546875" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="229" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="113.88671875" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="229" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="19.2" x14ac:dyDescent="0.3">
       <c r="D5" s="10" t="s">
         <v>0</v>
       </c>
       <c r="E5" s="10"/>
     </row>
-    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D6" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="13"/>
     </row>
-    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -1960,7 +1981,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="105" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
         <v>59</v>
       </c>
@@ -1984,7 +2005,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
         <v>60</v>
       </c>
@@ -2008,7 +2029,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
         <v>61</v>
       </c>
@@ -2032,7 +2053,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="75" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
         <v>62</v>
       </c>
@@ -2056,7 +2077,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
         <v>63</v>
       </c>
@@ -2080,7 +2101,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
         <v>64</v>
       </c>
@@ -2104,7 +2125,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
         <v>65</v>
       </c>
@@ -2128,7 +2149,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
         <v>66</v>
       </c>
@@ -2152,7 +2173,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="135" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
         <v>67</v>
       </c>
@@ -2176,7 +2197,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
         <v>68</v>
       </c>
@@ -2200,7 +2221,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="90" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
         <v>69</v>
       </c>
@@ -2224,7 +2245,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
         <v>70</v>
       </c>
@@ -2248,7 +2269,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
         <v>71</v>
       </c>
@@ -2272,7 +2293,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
         <v>72</v>
       </c>
@@ -2296,7 +2317,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
         <v>73</v>
       </c>
@@ -2320,7 +2341,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="90" x14ac:dyDescent="0.3">
       <c r="A24" s="17" t="s">
         <v>74</v>
       </c>
@@ -2344,7 +2365,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A25" s="17" t="s">
         <v>75</v>
       </c>
@@ -2368,7 +2389,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.3">
       <c r="A26" s="17" t="s">
         <v>76</v>
       </c>
@@ -2392,7 +2413,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="75" x14ac:dyDescent="0.3">
       <c r="A27" s="17" t="s">
         <v>77</v>
       </c>
@@ -2416,7 +2437,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.3">
       <c r="A28" s="17" t="s">
         <v>78</v>
       </c>
@@ -2440,7 +2461,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A29" s="17" t="s">
         <v>79</v>
       </c>
@@ -2464,7 +2485,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A30" s="17" t="s">
         <v>80</v>
       </c>
@@ -2488,7 +2509,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="s">
         <v>81</v>
       </c>
@@ -2512,7 +2533,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="105" x14ac:dyDescent="0.3">
       <c r="A32" s="17" t="s">
         <v>82</v>
       </c>
@@ -2536,7 +2557,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="120" x14ac:dyDescent="0.3">
       <c r="A33" s="17" t="s">
         <v>83</v>
       </c>
@@ -2560,7 +2581,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A34" s="17" t="s">
         <v>84</v>
       </c>
@@ -2584,7 +2605,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="90" x14ac:dyDescent="0.3">
       <c r="A35" s="17" t="s">
         <v>85</v>
       </c>
@@ -2608,7 +2629,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="60" x14ac:dyDescent="0.3">
       <c r="A36" s="17" t="s">
         <v>86</v>
       </c>
@@ -2632,7 +2653,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="90" x14ac:dyDescent="0.3">
       <c r="A37" s="17" t="s">
         <v>87</v>
       </c>
@@ -2656,7 +2677,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A38" s="17" t="s">
         <v>88</v>
       </c>
@@ -2680,7 +2701,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="90" x14ac:dyDescent="0.3">
       <c r="A39" s="17" t="s">
         <v>89</v>
       </c>
@@ -2704,7 +2725,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A40" s="17" t="s">
         <v>90</v>
       </c>
@@ -2728,7 +2749,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="135" x14ac:dyDescent="0.3">
       <c r="A41" s="17" t="s">
         <v>91</v>
       </c>
@@ -2752,7 +2773,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="105" x14ac:dyDescent="0.3">
       <c r="A42" s="17" t="s">
         <v>92</v>
       </c>
@@ -2776,7 +2797,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="165" x14ac:dyDescent="0.3">
       <c r="A43" s="17" t="s">
         <v>93</v>
       </c>
@@ -2800,7 +2821,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="105" x14ac:dyDescent="0.3">
       <c r="A44" s="17" t="s">
         <v>94</v>
       </c>
@@ -2824,7 +2845,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="30.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A45" s="17" t="s">
         <v>151</v>
       </c>
@@ -2848,7 +2869,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="30.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A46" s="17" t="s">
         <v>152</v>
       </c>
@@ -2872,7 +2893,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A47" s="17" t="s">
         <v>153</v>
       </c>
@@ -2896,7 +2917,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A48" s="17" t="s">
         <v>154</v>
       </c>
@@ -2920,7 +2941,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="17" t="s">
         <v>155</v>
       </c>
@@ -2944,7 +2965,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="17" t="s">
         <v>156</v>
       </c>
@@ -2968,7 +2989,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="17" t="s">
         <v>158</v>
       </c>
@@ -2992,7 +3013,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="30.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A52" s="17" t="s">
         <v>171</v>
       </c>
@@ -3016,7 +3037,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="45.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="45.6" x14ac:dyDescent="0.3">
       <c r="A53" s="17" t="s">
         <v>172</v>
       </c>
@@ -3041,14 +3062,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A8:G44">
-    <sortState ref="A9:G44">
+  <autoFilter ref="A8:G44" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:G44">
       <sortCondition ref="A8:A44"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D44">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D44" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3059,7 +3080,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
@@ -3070,47 +3091,47 @@
       <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="22" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="23" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="23" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" style="23" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" style="23" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="23" customWidth="1"/>
-    <col min="8" max="8" width="66.7109375" style="23" customWidth="1"/>
-    <col min="9" max="229" width="8.7109375" style="23" customWidth="1"/>
-    <col min="230" max="16384" width="11.5703125" style="23"/>
+    <col min="1" max="1" width="4.6640625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" style="23" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="23" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" style="23" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" style="23" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="23" customWidth="1"/>
+    <col min="8" max="8" width="66.6640625" style="23" customWidth="1"/>
+    <col min="9" max="229" width="8.6640625" style="23" customWidth="1"/>
+    <col min="230" max="16384" width="11.5546875" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C1" s="22"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C2" s="22"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="22"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C4" s="22"/>
     </row>
-    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.25">
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="F6" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A7" s="24"/>
       <c r="C7" s="22"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>6</v>
       </c>
@@ -3136,7 +3157,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>59</v>
       </c>
@@ -3163,7 +3184,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>60</v>
       </c>
@@ -3188,7 +3209,7 @@
       </c>
       <c r="H10" s="29"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>61</v>
       </c>
@@ -3213,7 +3234,7 @@
       </c>
       <c r="H11" s="29"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>62</v>
       </c>
@@ -3238,7 +3259,7 @@
       </c>
       <c r="H12" s="33"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>63</v>
       </c>
@@ -3263,7 +3284,7 @@
       </c>
       <c r="H13" s="33"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>64</v>
       </c>
@@ -3288,7 +3309,7 @@
       </c>
       <c r="H14" s="33"/>
     </row>
-    <row r="15" spans="1:8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
         <v>65</v>
       </c>
@@ -3316,13 +3337,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A8:F14"/>
+  <autoFilter ref="A8:F14" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D15">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D15" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G15" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"Pending, Doing, Deferred, Done"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3333,7 +3354,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
@@ -3344,46 +3365,46 @@
       <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="66.7109375" customWidth="1"/>
-    <col min="9" max="229" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="66.6640625" customWidth="1"/>
+    <col min="9" max="229" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.3">
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="F6" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>6</v>
       </c>
@@ -3410,7 +3431,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
         <v>59</v>
       </c>
@@ -3435,7 +3456,7 @@
       </c>
       <c r="H9" s="29"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
         <v>60</v>
       </c>
@@ -3460,7 +3481,7 @@
       </c>
       <c r="H10" s="29"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
         <v>61</v>
       </c>
@@ -3485,7 +3506,7 @@
       </c>
       <c r="H11" s="29"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
         <v>62</v>
       </c>
@@ -3510,7 +3531,7 @@
       </c>
       <c r="H12" s="29"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
         <v>63</v>
       </c>
@@ -3535,7 +3556,7 @@
       </c>
       <c r="H13" s="29"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
         <v>64</v>
       </c>
@@ -3560,7 +3581,7 @@
       </c>
       <c r="H14" s="29"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
         <v>65</v>
       </c>
@@ -3585,7 +3606,7 @@
       </c>
       <c r="H15" s="29"/>
     </row>
-    <row r="16" spans="1:8" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" s="23" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>66</v>
       </c>
@@ -3611,13 +3632,13 @@
       <c r="H16" s="33"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:F14"/>
+  <autoFilter ref="A8:F14" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G16" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"Pending, Doing, Deferred, Done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D16">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D16" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3628,57 +3649,57 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" customWidth="1"/>
-    <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="66.7109375" customWidth="1"/>
-    <col min="9" max="229" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18.21875" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="66.6640625" customWidth="1"/>
+    <col min="9" max="229" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.3">
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="F6" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>6</v>
       </c>
@@ -3704,7 +3725,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
         <v>59</v>
       </c>
@@ -3729,7 +3750,7 @@
       </c>
       <c r="H9" s="29"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
         <v>60</v>
       </c>
@@ -3754,7 +3775,7 @@
       </c>
       <c r="H10" s="29"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
         <v>61</v>
       </c>
@@ -3779,7 +3800,7 @@
       </c>
       <c r="H11" s="29"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
         <v>62</v>
       </c>
@@ -3804,7 +3825,7 @@
       </c>
       <c r="H12" s="29"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
         <v>63</v>
       </c>
@@ -3829,7 +3850,7 @@
       </c>
       <c r="H13" s="29"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
         <v>64</v>
       </c>
@@ -3854,7 +3875,7 @@
       </c>
       <c r="H14" s="29"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
         <v>65</v>
       </c>
@@ -3879,7 +3900,7 @@
       </c>
       <c r="H15" s="29"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
         <v>66</v>
       </c>
@@ -3904,7 +3925,7 @@
       </c>
       <c r="H16" s="29"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
         <v>67</v>
       </c>
@@ -3929,7 +3950,7 @@
       </c>
       <c r="H17" s="29"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
         <v>68</v>
       </c>
@@ -3954,7 +3975,7 @@
       </c>
       <c r="H18" s="29"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
         <v>69</v>
       </c>
@@ -3979,7 +4000,7 @@
       </c>
       <c r="H19" s="29"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
         <v>70</v>
       </c>
@@ -3996,7 +4017,7 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="29" t="s">
         <v>145</v>
       </c>
       <c r="G20" s="5" t="s">
@@ -4004,7 +4025,7 @@
       </c>
       <c r="H20" s="29"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
         <v>71</v>
       </c>
@@ -4029,7 +4050,7 @@
       </c>
       <c r="H21" s="29"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
         <v>72</v>
       </c>
@@ -4054,7 +4075,7 @@
       </c>
       <c r="H22" s="29"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
         <v>73</v>
       </c>
@@ -4079,75 +4100,85 @@
       </c>
       <c r="H23" s="29"/>
     </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="47"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A8:F15"/>
+  <autoFilter ref="A8:F15" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D19">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D19" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G23" xr:uid="{00000000-0002-0000-0400-000001000000}">
       <formula1>"Pending, Doing, Deferred, Done"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" customWidth="1"/>
-    <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="66.7109375" customWidth="1"/>
-    <col min="9" max="229" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="66.6640625" customWidth="1"/>
+    <col min="9" max="229" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.3">
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="F6" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>6</v>
       </c>
@@ -4173,7 +4204,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
         <v>59</v>
       </c>
@@ -4186,19 +4217,19 @@
       <c r="D9" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E9" s="49">
         <f>IF(D9="Complex", 240, IF(D9="Medium",120,60))</f>
         <v>120</v>
       </c>
-      <c r="F9" s="29" t="s">
+      <c r="F9" s="50" t="s">
         <v>139</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="29"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H9" s="50"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
         <v>60</v>
       </c>
@@ -4211,19 +4242,19 @@
       <c r="D10" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="E10" s="28">
+      <c r="E10" s="49">
         <f t="shared" ref="E10:E23" si="0">IF(D10="Complex", 240, IF(D10="Medium",120,60))</f>
         <v>60</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="F10" s="50" t="s">
         <v>139</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="29"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H10" s="50"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
         <v>61</v>
       </c>
@@ -4236,19 +4267,19 @@
       <c r="D11" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="28">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F11" s="29" t="s">
+      <c r="E11" s="49">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F11" s="50" t="s">
         <v>145</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="29"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H11" s="50"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
         <v>62</v>
       </c>
@@ -4261,19 +4292,19 @@
       <c r="D12" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="49">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
-      <c r="F12" s="29" t="s">
+      <c r="F12" s="50" t="s">
         <v>139</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="29"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H12" s="50"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
         <v>63</v>
       </c>
@@ -4286,19 +4317,19 @@
       <c r="D13" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="28">
+      <c r="E13" s="49">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F13" s="29" t="s">
+      <c r="F13" s="50" t="s">
         <v>139</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="29"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H13" s="50"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
         <v>64</v>
       </c>
@@ -4311,19 +4342,19 @@
       <c r="D14" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="28">
+      <c r="E14" s="49">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
-      <c r="F14" s="29" t="s">
+      <c r="F14" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="H14" s="29"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H14" s="50"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
         <v>65</v>
       </c>
@@ -4336,19 +4367,19 @@
       <c r="D15" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="E15" s="28">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F15" s="29" t="s">
+      <c r="E15" s="49">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F15" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="29"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H15" s="50"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
         <v>66</v>
       </c>
@@ -4361,19 +4392,19 @@
       <c r="D16" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="E16" s="28">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F16" s="29" t="s">
+      <c r="E16" s="49">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F16" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="H16" s="29"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H16" s="50"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
         <v>67</v>
       </c>
@@ -4386,19 +4417,19 @@
       <c r="D17" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="E17" s="28">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F17" s="29" t="s">
+      <c r="E17" s="49">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F17" s="50" t="s">
         <v>142</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="29"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H17" s="50"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
         <v>68</v>
       </c>
@@ -4411,19 +4442,19 @@
       <c r="D18" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="28">
+      <c r="E18" s="49">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F18" s="29" t="s">
+      <c r="F18" s="50" t="s">
         <v>142</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="H18" s="29"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H18" s="50"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
         <v>69</v>
       </c>
@@ -4436,19 +4467,19 @@
       <c r="D19" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="E19" s="28">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F19" s="46" t="s">
+      <c r="E19" s="49">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F19" s="52" t="s">
         <v>142</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="H19" s="29"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H19" s="50"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
         <v>70</v>
       </c>
@@ -4461,19 +4492,19 @@
       <c r="D20" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="E20" s="28">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F20" s="46" t="s">
+      <c r="E20" s="49">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F20" s="52" t="s">
         <v>142</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="H20" s="29"/>
-    </row>
-    <row r="21" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="H20" s="50"/>
+    </row>
+    <row r="21" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
         <v>71</v>
       </c>
@@ -4486,19 +4517,19 @@
       <c r="D21" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="E21" s="28">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F21" s="46" t="s">
+      <c r="E21" s="49">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F21" s="52" t="s">
         <v>142</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="H21" s="29"/>
-    </row>
-    <row r="22" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="H21" s="50"/>
+    </row>
+    <row r="22" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
         <v>72</v>
       </c>
@@ -4511,19 +4542,19 @@
       <c r="D22" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="28">
+      <c r="E22" s="49">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F22" s="46" t="s">
+      <c r="F22" s="52" t="s">
         <v>144</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="H22" s="29"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H22" s="50"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
         <v>73</v>
       </c>
@@ -4536,26 +4567,26 @@
       <c r="D23" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="E23" s="28">
+      <c r="E23" s="49">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F23" s="46" t="s">
+      <c r="F23" s="52" t="s">
         <v>144</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="H23" s="29"/>
+      <c r="H23" s="50"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:F15"/>
+  <autoFilter ref="A8:F15" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G23" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"Pending, Doing, Deferred, Done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D18">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D18" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Documents/SE1606_SWP391_OnlineShop_Backlog_W3.xlsx
+++ b/Documents/SE1606_SWP391_OnlineShop_Backlog_W3.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FPTU\Sem5\SWP391\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\SWP391\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2924CC14-11A0-4238-B2EB-569C7DB4A8EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="RoC" sheetId="4" r:id="rId1"/>
@@ -28,7 +27,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Product!$A$8:$G$44</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RoC!$A$3:$C$10</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -662,7 +661,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1087,7 +1086,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 5" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 5" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1793,7 +1792,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
@@ -1900,14 +1899,14 @@
       <c r="D10" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:C10" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A3:C10"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
@@ -3062,14 +3061,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A8:G44" xr:uid="{00000000-0009-0000-0000-000001000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:G44">
+  <autoFilter ref="A8:G44">
+    <sortState ref="A9:G44">
       <sortCondition ref="A8:A44"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D44" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D44">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3080,7 +3079,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
@@ -3337,13 +3336,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A8:F14" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A8:F14"/>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D15" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D15">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G15" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G15">
       <formula1>"Pending, Doing, Deferred, Done"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3354,15 +3353,15 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3452,7 +3451,7 @@
         <v>141</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>178</v>
+        <v>138</v>
       </c>
       <c r="H9" s="29"/>
     </row>
@@ -3477,7 +3476,7 @@
         <v>141</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>178</v>
+        <v>138</v>
       </c>
       <c r="H10" s="29"/>
     </row>
@@ -3632,13 +3631,13 @@
       <c r="H16" s="33"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:F14" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A8:F14"/>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G16" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G16">
       <formula1>"Pending, Doing, Deferred, Done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D16" xr:uid="{00000000-0002-0000-0300-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D16">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3649,13 +3648,13 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
     </sheetView>
@@ -4111,13 +4110,13 @@
       <c r="H24" s="48"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:F15" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
+  <autoFilter ref="A8:F15"/>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D19" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D19">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G23" xr:uid="{00000000-0002-0000-0400-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G23">
       <formula1>"Pending, Doing, Deferred, Done"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4128,7 +4127,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
@@ -4580,13 +4579,13 @@
       <c r="H23" s="50"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:F15" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
+  <autoFilter ref="A8:F15"/>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G23" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G23">
       <formula1>"Pending, Doing, Deferred, Done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D18" xr:uid="{00000000-0002-0000-0500-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D18">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
   </dataValidations>
